--- a/data/Indice_Autores.xlsx
+++ b/data/Indice_Autores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Sarmiento\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406B4637-03B0-4E12-BC8B-AAAAE43B3A85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE87A2B-A966-4ABB-AA67-9F227C2AA0FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,26 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
-  <si>
-    <t>capitulo_num</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
   <si>
     <t>titulo_capitulo</t>
   </si>
   <si>
-    <t>principal</t>
-  </si>
-  <si>
-    <t>principal_correo</t>
-  </si>
-  <si>
     <t>coautor</t>
   </si>
   <si>
-    <t>coautor_correo</t>
-  </si>
-  <si>
     <t>Conceptos básicos de estadística</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>Gael Velásquez + Renato Barzola</t>
   </si>
   <si>
-    <t>Renato Barzola</t>
-  </si>
-  <si>
     <t>Francisco Cedeño</t>
   </si>
   <si>
@@ -208,9 +193,6 @@
     <t>gael.velasquez.revilla@gmail.com ; renato.barzola@udh.edu.pe</t>
   </si>
   <si>
-    <t>renato.barzola@udh.edu.pe</t>
-  </si>
-  <si>
     <t>fcedeno@uteg.edu.ec</t>
   </si>
   <si>
@@ -239,6 +221,18 @@
   </si>
   <si>
     <t>ricardoa.santaq@unilibre.edu.co</t>
+  </si>
+  <si>
+    <t>capitulo</t>
+  </si>
+  <si>
+    <t>autor_principal</t>
+  </si>
+  <si>
+    <t>correo_principal</t>
+  </si>
+  <si>
+    <t>correo_coautor</t>
   </si>
 </sst>
 </file>
@@ -653,38 +647,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
     <col min="8" max="8" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -692,19 +687,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -712,19 +707,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -732,19 +727,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -753,19 +748,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -773,19 +768,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -793,19 +788,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -813,19 +808,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -833,19 +828,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -853,19 +848,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -873,19 +868,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -893,19 +888,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -913,19 +896,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -933,19 +916,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
         <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -953,19 +936,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -973,19 +956,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -993,19 +976,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,19 +996,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,19 +1016,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,19 +1036,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1073,19 +1044,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1093,19 +1064,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
         <v>45</v>
       </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1113,19 +1084,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,19 +1104,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1153,19 +1124,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,19 +1144,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1193,19 +1164,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1213,19 +1172,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1233,19 +1180,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1253,19 +1200,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1273,19 +1220,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1293,13 +1240,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,17 +1254,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{1E150BD6-F50C-47E5-A098-E2BB1B098C4B}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F23F8AF8-67A0-443F-B5D8-F2E303DB8AD7}"/>
     <hyperlink ref="D4" r:id="rId2" display="Danieldavidromanacosta@gmail.com" xr:uid="{00BA82D9-05FB-4C91-B703-60A0CCCB5A50}"/>

--- a/data/Indice_Autores.xlsx
+++ b/data/Indice_Autores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Sarmiento\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE87A2B-A966-4ABB-AA67-9F227C2AA0FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFA70DE-1355-4060-86D0-1393F14B0D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>titulo_capitulo</t>
   </si>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,18 +1182,6 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">

--- a/data/Indice_Autores.xlsx
+++ b/data/Indice_Autores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Sarmiento\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFA70DE-1355-4060-86D0-1393F14B0D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46745D39-5B87-4A76-91ED-439169611872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Indice_Autores.xlsx
+++ b/data/Indice_Autores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Sarmiento\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46745D39-5B87-4A76-91ED-439169611872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75364F3-66C4-48DF-8782-1FBFAA6768C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t>titulo_capitulo</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Gael Velásquez</t>
   </si>
   <si>
-    <t>Gael Velásquez + Renato Barzola</t>
-  </si>
-  <si>
     <t>Francisco Cedeño</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>gael.velasquez.revilla@gmail.com</t>
   </si>
   <si>
-    <t>gael.velasquez.revilla@gmail.com ; renato.barzola@udh.edu.pe</t>
-  </si>
-  <si>
     <t>fcedeno@uteg.edu.ec</t>
   </si>
   <si>
@@ -233,6 +227,9 @@
   </si>
   <si>
     <t>correo_coautor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gael.velasquez.revilla@gmail.com </t>
   </si>
 </sst>
 </file>
@@ -647,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,22 +661,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -693,13 +690,13 @@
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -713,13 +710,13 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -733,13 +730,13 @@
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -754,13 +751,13 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -774,13 +771,13 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -794,13 +791,13 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -814,13 +811,13 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -834,13 +831,13 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -854,13 +851,13 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -871,16 +868,16 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -902,13 +899,13 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -922,13 +919,13 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -942,13 +939,13 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -962,13 +959,13 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -982,13 +979,13 @@
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,13 +999,13 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1022,13 +1019,13 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1050,13 +1047,13 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1070,13 +1067,13 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1090,13 +1087,13 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1110,13 +1107,13 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1127,16 +1124,16 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1150,13 +1147,13 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
         <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1191,16 +1188,16 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>60</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1214,13 +1211,13 @@
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1231,10 +1228,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,10 +1242,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1257,6 +1254,7 @@
     <hyperlink ref="D4" r:id="rId2" display="Danieldavidromanacosta@gmail.com" xr:uid="{00BA82D9-05FB-4C91-B703-60A0CCCB5A50}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{01C038BB-6FAD-4D49-9D25-C713BE87AFB0}"/>
     <hyperlink ref="F4" r:id="rId4" display="ricardoa.santaq@ulibre.edu.co" xr:uid="{6251A394-FC3B-4E74-9520-B68B2E73F093}"/>
+    <hyperlink ref="D25" r:id="rId5" xr:uid="{C97D3709-D09F-413F-AFAB-1AF27957C0D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Indice_Autores.xlsx
+++ b/data/Indice_Autores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Sarmiento\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utmachalaeduec-my.sharepoint.com/personal/cbsarmiento_utmachala_edu_ec/Documents/GitHub/Libro-Estadistica/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75364F3-66C4-48DF-8782-1FBFAA6768C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="14_{37155592-8BC7-4CE0-8049-0A3987157700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FBCA47-D06C-425C-B3AF-A2CF45893A96}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,54 +16,154 @@
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indice!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indice!$A$1:$H$33</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+  <si>
+    <t>capitulo</t>
+  </si>
   <si>
     <t>titulo_capitulo</t>
   </si>
   <si>
+    <t>autor_principal</t>
+  </si>
+  <si>
+    <t>correo_principal</t>
+  </si>
+  <si>
     <t>coautor</t>
   </si>
   <si>
+    <t>correo_coautor</t>
+  </si>
+  <si>
     <t>Conceptos básicos de estadística</t>
   </si>
   <si>
+    <t>Daniel Román</t>
+  </si>
+  <si>
+    <t>danieldavidromanacosta@gmail.com</t>
+  </si>
+  <si>
     <t>Variables y escalas de medición</t>
   </si>
   <si>
+    <t>Víctor Barreto</t>
+  </si>
+  <si>
+    <t>psicoasignaturas@gmail.com</t>
+  </si>
+  <si>
     <t>Medidas de tendencia central y dispersión</t>
   </si>
   <si>
+    <t>Vera Martines</t>
+  </si>
+  <si>
+    <t>vera.martins@poa.ifrs.edu.br</t>
+  </si>
+  <si>
+    <t>Ricardo Santa</t>
+  </si>
+  <si>
+    <t>ricardoa.santaq@unilibre.edu.co</t>
+  </si>
+  <si>
     <t>Representación gráfica</t>
   </si>
   <si>
+    <t>Gael Velásquez</t>
+  </si>
+  <si>
+    <t>gael.velasquez.revilla@gmail.com</t>
+  </si>
+  <si>
     <t>Fundamentos del muestreo</t>
   </si>
   <si>
+    <t>Andrés Galvis</t>
+  </si>
+  <si>
+    <t>aagalvis@espe.edu.ec</t>
+  </si>
+  <si>
     <t>Distribuciones de probabilidad</t>
   </si>
   <si>
+    <t>Edgar Sansores</t>
+  </si>
+  <si>
+    <t>easg@azc.uam.mx</t>
+  </si>
+  <si>
     <t>Distribución normal y sus aplicaciones</t>
   </si>
   <si>
     <t>Estimación de parámetros</t>
   </si>
   <si>
+    <t>Jesús Reyes</t>
+  </si>
+  <si>
+    <t>jreyesac@unmsm.edu.pe</t>
+  </si>
+  <si>
     <t>Pruebas de hipótesis: fundamentos</t>
   </si>
   <si>
+    <t>Jetro López</t>
+  </si>
+  <si>
+    <t>jedi1lopez@gmail.com</t>
+  </si>
+  <si>
     <t>Pruebas para medias</t>
   </si>
   <si>
+    <t>Francisco Cedeño</t>
+  </si>
+  <si>
+    <t>fcedeno@uteg.edu.ec</t>
+  </si>
+  <si>
+    <t>Yoskira Cordero</t>
+  </si>
+  <si>
+    <t>ycordero@uteg.edu.ec</t>
+  </si>
+  <si>
     <t>ANOVA</t>
   </si>
   <si>
+    <t>Jose Puentes</t>
+  </si>
+  <si>
+    <t>josepuente67@gmail.com</t>
+  </si>
+  <si>
     <t>Pruebas no paramétricas</t>
   </si>
   <si>
@@ -85,6 +185,12 @@
     <t>Modelos de ecuaciones estructurales (SEM)</t>
   </si>
   <si>
+    <t>Carlos Sarmiento</t>
+  </si>
+  <si>
+    <t>cbsarmiento@utmachala.edu.ec</t>
+  </si>
+  <si>
     <t>SmartPLS: uso y aplicaciones</t>
   </si>
   <si>
@@ -103,140 +209,89 @@
     <t>Aplicaciones prácticas de pronósticos</t>
   </si>
   <si>
+    <t xml:space="preserve">gael.velasquez.revilla@gmail.com </t>
+  </si>
+  <si>
     <t>Análisis con R</t>
   </si>
   <si>
+    <t>GraceViteri</t>
+  </si>
+  <si>
+    <t>gviteri@uteg.edu.ec</t>
+  </si>
+  <si>
     <t>Análisis con Python</t>
   </si>
   <si>
+    <t>Guillermo Alejandro Zaragoza Alvarado</t>
+  </si>
+  <si>
+    <t>guzaragoza@uveg.edu.mx</t>
+  </si>
+  <si>
     <t>Análisis con SPSS</t>
   </si>
   <si>
-    <t>Análisis con Excel</t>
+    <t>Datos de Panel</t>
+  </si>
+  <si>
+    <t>Lucho Brito</t>
+  </si>
+  <si>
+    <t>lbrito@utmachala.edu.ec</t>
   </si>
   <si>
     <t>Aplicaciones en educación superior</t>
   </si>
   <si>
+    <t>Diana Emilce Barrera Cuta</t>
+  </si>
+  <si>
+    <t>contaduria@unitropico.edu.co</t>
+  </si>
+  <si>
     <t>Aplicaciones en negocios y empresas</t>
   </si>
   <si>
+    <t>Luis Maguiña Custodio</t>
+  </si>
+  <si>
+    <t>lmmaguinac@ucvvirtual.edu.pe</t>
+  </si>
+  <si>
     <t>Aplicaciones en políticas públicas</t>
   </si>
   <si>
+    <t>Mario Gomez + José Carlos Rodríguez</t>
+  </si>
+  <si>
+    <t>jcrodriguez@umich.mx</t>
+  </si>
+  <si>
     <t>Tendencias futuras de la estadística aplicada</t>
   </si>
   <si>
-    <t>Daniel Román</t>
-  </si>
-  <si>
-    <t>Víctor Barreto</t>
-  </si>
-  <si>
-    <t>Migdalia Viez</t>
-  </si>
-  <si>
-    <t>Yoskira Cordero</t>
-  </si>
-  <si>
-    <t>Jetro López</t>
-  </si>
-  <si>
-    <t>Andrés Galvis</t>
-  </si>
-  <si>
-    <t>Edgar Sansores</t>
-  </si>
-  <si>
-    <t>Ricardo Santa</t>
-  </si>
-  <si>
-    <t>Gael Velásquez</t>
-  </si>
-  <si>
-    <t>Francisco Cedeño</t>
-  </si>
-  <si>
-    <t>Jesús Reyes</t>
-  </si>
-  <si>
-    <t>Diana Emilce Barrera + José Carlos Rodríguez</t>
-  </si>
-  <si>
-    <t>Mario Gómez + Luis Maguiña Custodio</t>
-  </si>
-  <si>
-    <t>psicoasignaturas@gmail.com</t>
-  </si>
-  <si>
-    <t>sumiva@gmail.com</t>
-  </si>
-  <si>
-    <t>ycordero@uteg.edu.ec</t>
-  </si>
-  <si>
-    <t>jedi1lopez@gmail.com</t>
-  </si>
-  <si>
-    <t>aagalvis@espe.edu.ec</t>
-  </si>
-  <si>
-    <t>easg@azc.uam.mx</t>
-  </si>
-  <si>
-    <t>gael.velasquez.revilla@gmail.com</t>
-  </si>
-  <si>
-    <t>fcedeno@uteg.edu.ec</t>
-  </si>
-  <si>
-    <t>jreyesac@unmsm.edu.pe</t>
-  </si>
-  <si>
-    <t>jcrodriguez@umich.mx</t>
-  </si>
-  <si>
-    <t>mgomez@umich.mx ; lmmaguinac@ucvvirtual.edu.pe</t>
-  </si>
-  <si>
-    <t>Diana Emilce Barrera Cuta</t>
-  </si>
-  <si>
-    <t>Luis Maguiña Custodio</t>
-  </si>
-  <si>
-    <t>contaduria@unitropico.edu.co</t>
-  </si>
-  <si>
-    <t>lmmaguinac@ucvvirtual.edu.pe</t>
-  </si>
-  <si>
-    <t>danieldavidromanacosta@gmail.com</t>
-  </si>
-  <si>
-    <t>ricardoa.santaq@unilibre.edu.co</t>
-  </si>
-  <si>
-    <t>capitulo</t>
-  </si>
-  <si>
-    <t>autor_principal</t>
-  </si>
-  <si>
-    <t>correo_principal</t>
-  </si>
-  <si>
-    <t>correo_coautor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gael.velasquez.revilla@gmail.com </t>
+    <t>Mario Gómez</t>
+  </si>
+  <si>
+    <t>mgomez@umich.mx ;</t>
+  </si>
+  <si>
+    <t>Dennis Rafael Zavala López</t>
+  </si>
+  <si>
+    <t>enniszavala@gmail.com</t>
+  </si>
+  <si>
+    <t>https://orcid.org/00000001-9343-6492</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,12 +316,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -293,19 +360,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -322,9 +395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,9 +435,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,26 +470,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,26 +505,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -642,620 +681,888 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="55.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
       <c r="F15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
       <c r="F21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>57</v>
+        <v>76</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H33" xr:uid="{6B00B183-F41D-42C3-AD15-A9BE787B49CF}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F23F8AF8-67A0-443F-B5D8-F2E303DB8AD7}"/>
-    <hyperlink ref="D4" r:id="rId2" display="Danieldavidromanacosta@gmail.com" xr:uid="{00BA82D9-05FB-4C91-B703-60A0CCCB5A50}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{01C038BB-6FAD-4D49-9D25-C713BE87AFB0}"/>
-    <hyperlink ref="F4" r:id="rId4" display="ricardoa.santaq@ulibre.edu.co" xr:uid="{6251A394-FC3B-4E74-9520-B68B2E73F093}"/>
-    <hyperlink ref="D25" r:id="rId5" xr:uid="{C97D3709-D09F-413F-AFAB-1AF27957C0D7}"/>
+    <hyperlink ref="F4" r:id="rId2" display="ricardoa.santaq@ulibre.edu.co" xr:uid="{6251A394-FC3B-4E74-9520-B68B2E73F093}"/>
+    <hyperlink ref="D25" r:id="rId3" xr:uid="{C97D3709-D09F-413F-AFAB-1AF27957C0D7}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{01FAD230-FFB1-4805-83CC-8258C7CE17D6}"/>
+    <hyperlink ref="D28" r:id="rId5" xr:uid="{266522F1-68A2-448C-A189-BA584547A208}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{62BD71D4-C668-410D-AC7F-69B5096772F1}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{E795DB7E-F14F-44AE-9B1C-D5D952868F49}"/>
+    <hyperlink ref="D29" r:id="rId8" xr:uid="{B71699E2-B235-4166-B96F-787FA4142B31}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{8D0B0097-3652-4861-8854-CFCE66F108F9}"/>
+    <hyperlink ref="D33" r:id="rId10" xr:uid="{67E355C7-9A93-4EED-A132-C7BD7D524EAD}"/>
+    <hyperlink ref="D26" r:id="rId11" xr:uid="{FABC9E31-0C18-40A1-B669-C285CAF06650}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100514F538207C67743B659C18211503190" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="83af62d3782e88ef7f18e90f26ae07c7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9beb6eb3-783c-4b45-aaa1-072eb51a5adf" xmlns:ns4="73f49266-e075-475c-8e52-0e617c11eb91" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bb6088c76c1ed85dbbd5f2c5cec762b" ns3:_="" ns4:_="">
+    <xsd:import namespace="9beb6eb3-783c-4b45-aaa1-072eb51a5adf"/>
+    <xsd:import namespace="73f49266-e075-475c-8e52-0e617c11eb91"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9beb6eb3-783c-4b45-aaa1-072eb51a5adf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="10" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="18" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="73f49266-e075-475c-8e52-0e617c11eb91" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="13" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9beb6eb3-783c-4b45-aaa1-072eb51a5adf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9D78D9-3152-4550-9D18-87F00DF987CA}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D1ABC72-DB1F-42ED-862E-3F97EBC74FE2}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9487BC1C-F223-4D08-9DB9-17CD8E5315EA}"/>
 </file>